--- a/Full_Results_Figures_Statistics.xlsx
+++ b/Full_Results_Figures_Statistics.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA939CC3-722E-429B-9644-56C149076042}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B17EB293-915B-44CF-8770-EF167D405629}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Combined" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="105">
   <si>
     <t>Tumour</t>
   </si>
@@ -347,9 +347,6 @@
     <t>Sig</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
     <t>Not Sig</t>
   </si>
 </sst>
@@ -402,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -410,17 +407,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -874,7 +867,7 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
               </a:ln>
@@ -1966,37 +1959,7 @@
             <c:forward val="2"/>
             <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -2651,7 +2614,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>TelomereCat vs Stela (Normal)</c:v>
+            <c:v>CompuTel vs Stela (Normal)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -2689,37 +2652,7 @@
             <c:forward val="2"/>
             <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -2858,135 +2791,135 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Normal!$C$2:$C$43</c:f>
+              <c:f>Normal!$D$2:$D$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>1.5785</c:v>
+                  <c:v>1.06495442033461</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5245</c:v>
+                  <c:v>1.36958881447966</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9228999999999998</c:v>
+                  <c:v>0.7098259307868231</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7870999999999999</c:v>
+                  <c:v>1.2603129442351702</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3854</c:v>
+                  <c:v>0.60704510063628592</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0384000000000002</c:v>
+                  <c:v>0.89064198148916707</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.202</c:v>
+                  <c:v>0.45357232300522499</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3218000000000001</c:v>
+                  <c:v>0.70941642506821601</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.9964999999999999</c:v>
+                  <c:v>1.10435536923596</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1828000000000001</c:v>
+                  <c:v>0.49304128615814602</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.8757999999999999</c:v>
+                  <c:v>1.06581626814681</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.1453000000000002</c:v>
+                  <c:v>1.74834002196786</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1362000000000001</c:v>
+                  <c:v>0.46775155757582304</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2369000000000001</c:v>
+                  <c:v>0.43084362560200801</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.8513000000000002</c:v>
+                  <c:v>1.9781924523005101</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.1162000000000001</c:v>
+                  <c:v>1.6693817403770699</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.3395999999999999</c:v>
+                  <c:v>1.6033020548290302</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.6021000000000001</c:v>
+                  <c:v>1.6416556250198802</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.0373999999999999</c:v>
+                  <c:v>1.5610027465301399</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.6322000000000001</c:v>
+                  <c:v>1.28103101965981</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.5536000000000001</c:v>
+                  <c:v>1.0484772135848499</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.5596999999999999</c:v>
+                  <c:v>1.82234031936624</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.2993999999999999</c:v>
+                  <c:v>0.988194857397237</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.8504999999999998</c:v>
+                  <c:v>1.1559559343464201</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.7990999999999999</c:v>
+                  <c:v>0.76988203058072502</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.9995000000000001</c:v>
+                  <c:v>0.52867243267728892</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.7770999999999999</c:v>
+                  <c:v>0.51021885386588006</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.0836000000000001</c:v>
+                  <c:v>1.8422130910560599</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.917</c:v>
+                  <c:v>1.4543661893864501</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.0032000000000001</c:v>
+                  <c:v>0.59870238173652301</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.0899000000000001</c:v>
+                  <c:v>0.564247599990223</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.4301999999999999</c:v>
+                  <c:v>0.81356897820638407</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.4242999999999999</c:v>
+                  <c:v>0.80728520810503102</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.3661000000000001</c:v>
+                  <c:v>0.84888714772599094</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.0148999999999999</c:v>
+                  <c:v>0.57573552279281603</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.6835</c:v>
+                  <c:v>0.70244247745601296</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.9234</c:v>
+                  <c:v>1.3564813046901298</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.5465</c:v>
+                  <c:v>0.68830996352950202</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.6514</c:v>
+                  <c:v>0.69257735887475202</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.3620999999999999</c:v>
+                  <c:v>0.666530377376645</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.3845999999999998</c:v>
+                  <c:v>0.65824314546917606</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.3586</c:v>
+                  <c:v>0.87651744019441191</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3424,37 +3357,7 @@
             <c:forward val="2"/>
             <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -5952,7 +5855,7 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
               </a:ln>
@@ -7009,6 +6912,7 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -9971,37 +9875,7 @@
             <c:forward val="2"/>
             <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -10706,37 +10580,7 @@
             <c:forward val="2"/>
             <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -11453,37 +11297,7 @@
             <c:forward val="2"/>
             <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -20154,15 +19968,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>32658</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>32657</xdr:rowOff>
+      <xdr:colOff>23694</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>140233</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>407138</xdr:colOff>
+      <xdr:colOff>398174</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>74222</xdr:rowOff>
+      <xdr:rowOff>2504</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20192,15 +20006,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>407918</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>33349</xdr:rowOff>
+      <xdr:colOff>398954</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>140925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>172798</xdr:colOff>
+      <xdr:colOff>163834</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>74914</xdr:rowOff>
+      <xdr:rowOff>3196</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20230,15 +20044,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>43543</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>21772</xdr:rowOff>
+      <xdr:colOff>16649</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>3842</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>418023</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>63337</xdr:rowOff>
+      <xdr:colOff>391129</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>45408</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20268,15 +20082,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>424665</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>22464</xdr:rowOff>
+      <xdr:colOff>406736</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>174864</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>189545</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>64029</xdr:rowOff>
+      <xdr:colOff>171616</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>37136</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -21326,16 +21140,10 @@
           <cell r="B44">
             <v>1.49821</v>
           </cell>
-          <cell r="C44">
-            <v>3.4342999999999999</v>
-          </cell>
         </row>
         <row r="45">
           <cell r="B45">
             <v>0.77777799999999997</v>
-          </cell>
-          <cell r="C45">
-            <v>2.5419999999999998</v>
           </cell>
         </row>
       </sheetData>
@@ -21609,8 +21417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="G27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AG30" sqref="AG30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25626,10 +25434,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706A013A-AEC4-4086-A0EF-D4BBBD14308E}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25647,30 +25455,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="5"/>
+      <c r="J1" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3" t="s">
+      <c r="K1" s="5"/>
+      <c r="L1" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="M1" s="3"/>
+      <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
@@ -25780,7 +25588,7 @@
         <v>0.50390000000000001</v>
       </c>
       <c r="F4">
-        <v>0.36349999999999999</v>
+        <v>0.18079999999999999</v>
       </c>
       <c r="G4">
         <v>0.158</v>
@@ -25805,30 +25613,30 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5">
         <f>CORREL(Normal!B2:B43,Normal!E2:E43)</f>
         <v>0.10003011991766335</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5">
         <f>CORREL(Tumour!B2:B45,Tumour!E2:E45)</f>
         <v>0.14476213524520604</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5">
         <f>CORREL(Normal!C2:C43,Normal!E2:E43)</f>
         <v>8.7974436175998469E-2</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5">
         <f>CORREL('Tumour (No Outliers)'!C2:C41,'Tumour (No Outliers)'!E2:E41)</f>
         <v>0.56382436843964812</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5">
         <f>CORREL(Normal!D2:D43,Normal!E2:E43)</f>
         <v>0.1345146134484454</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5">
         <f>CORREL(Tumour!D2:D45,Tumour!E2:E45)</f>
         <v>0.66172827180288019</v>
       </c>
@@ -25857,192 +25665,52 @@
         <v>0.73106744585552008</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="5">
-        <f>SQRT(B3)</f>
-        <v>0.10003011991766336</v>
-      </c>
-      <c r="C6" s="5">
-        <f>SQRT(C3)</f>
-        <v>0.14476213524520604</v>
-      </c>
-      <c r="D6" s="5">
-        <f>SQRT(D3)</f>
-        <v>8.7974436175998469E-2</v>
-      </c>
-      <c r="E6" s="5">
-        <f>SQRT(E3)</f>
-        <v>0.56382436843964812</v>
-      </c>
-      <c r="F6" s="5">
-        <f>SQRT(F3)</f>
-        <v>0.1345146134484454</v>
-      </c>
-      <c r="G6" s="5">
-        <f>SQRT(G3)</f>
-        <v>0.66172827180287996</v>
-      </c>
-      <c r="H6" s="5">
-        <f>SQRT(H3)</f>
-        <v>0.20388517211559404</v>
-      </c>
-      <c r="I6" s="5">
-        <f>SQRT(I3)</f>
-        <v>4.9722201178911414E-2</v>
-      </c>
-      <c r="J6" s="5">
-        <f>SQRT(J3)</f>
-        <v>0.36579394697801204</v>
-      </c>
-      <c r="K6" s="5">
-        <f>SQRT(K3)</f>
-        <v>0.33740339005205222</v>
-      </c>
-      <c r="L6" s="5">
-        <f>SQRT(L3)</f>
-        <v>0.5206557754626393</v>
-      </c>
-      <c r="M6" s="5">
-        <f>SQRT(M3)</f>
-        <v>0.73106744585552019</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="C7" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G7" s="6" t="s">
+      <c r="F7" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="J7" s="9" t="s">
+      <c r="H7" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="4" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="L1:M1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Full_Results_Figures_Statistics.xlsx
+++ b/Full_Results_Figures_Statistics.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B17EB293-915B-44CF-8770-EF167D405629}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CE170E-5842-4F56-959B-2C4D7849FA34}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Combined" sheetId="1" r:id="rId1"/>
@@ -1959,7 +1959,37 @@
             <c:forward val="2"/>
             <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -2652,7 +2682,37 @@
             <c:forward val="2"/>
             <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -3357,7 +3417,37 @@
             <c:forward val="2"/>
             <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -9875,7 +9965,37 @@
             <c:forward val="2"/>
             <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -10580,7 +10700,37 @@
             <c:forward val="2"/>
             <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -11297,7 +11447,37 @@
             <c:forward val="2"/>
             <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -21417,8 +21597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView topLeftCell="G27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AG30" sqref="AG30"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25436,7 +25616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706A013A-AEC4-4086-A0EF-D4BBBD14308E}">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
